--- a/data/output/FV2410_FV2404/PARTIN/37002.xlsx
+++ b/data/output/FV2410_FV2404/PARTIN/37002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="318">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="318">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1076,6 +1076,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U247" totalsRowShown="0">
+  <autoFilter ref="A1:U247"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1365,7 +1395,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13629,5 +13662,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/PARTIN/37002.xlsx
+++ b/data/output/FV2410_FV2404/PARTIN/37002.xlsx
@@ -2239,7 +2239,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3409,7 +3409,7 @@
         <v>298</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3625,7 +3625,7 @@
         <v>298</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5123,7 +5123,7 @@
         <v>302</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6149,7 +6149,7 @@
         <v>305</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6361,7 +6361,7 @@
         <v>306</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7409,7 +7409,7 @@
         <v>302</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8361,7 +8361,7 @@
         <v>313</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9313,7 +9313,7 @@
         <v>314</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10265,7 +10265,7 @@
         <v>315</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10745,7 +10745,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11217,7 +11217,7 @@
         <v>316</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12169,7 +12169,7 @@
         <v>317</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13121,7 +13121,7 @@
         <v>318</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14073,7 +14073,7 @@
         <v>316</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14757,7 +14757,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N245" s="2"/>
